--- a/result/RPM_upgrade_result.xlsx
+++ b/result/RPM_upgrade_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>algorithm</t>
   </si>
@@ -50,6 +50,30 @@
   </si>
   <si>
     <t>buffer size</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>multicast</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ideal latency </t>
+  </si>
+  <si>
+    <t>reduction</t>
+  </si>
+  <si>
+    <t>4032*packets num</t>
+  </si>
+  <si>
+    <t>6480*packets num</t>
+  </si>
+  <si>
+    <t>6156*packets num</t>
+  </si>
+  <si>
+    <t>3936*packets num</t>
   </si>
 </sst>
 </file>
@@ -391,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L3"/>
+  <dimension ref="B1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,10 +427,11 @@
     <col min="7" max="7" width="24.28515625" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
     <col min="12" max="12" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -437,8 +462,14 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -451,8 +482,29 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="G2">
+        <v>1056</v>
+      </c>
+      <c r="H2">
+        <v>3198</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>892</v>
+      </c>
+      <c r="L2">
+        <v>950</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>176</v>
+      </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -473,6 +525,149 @@
       </c>
       <c r="I3">
         <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1353</v>
+      </c>
+      <c r="L3">
+        <v>552</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>256</v>
+      </c>
+      <c r="L4">
+        <v>233</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>376</v>
+      </c>
+      <c r="L5">
+        <v>251</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>736</v>
+      </c>
+      <c r="H7">
+        <v>1845</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>673</v>
+      </c>
+      <c r="N7">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>768</v>
+      </c>
+      <c r="H8">
+        <v>1968</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>702</v>
+      </c>
+      <c r="L8">
+        <v>314</v>
+      </c>
+      <c r="N8">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/result/RPM_upgrade_result.xlsx
+++ b/result/RPM_upgrade_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>algorithm</t>
   </si>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N8"/>
+  <dimension ref="B1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,19 +483,19 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1056</v>
+        <v>2080</v>
       </c>
       <c r="H2">
-        <v>3198</v>
+        <v>5282</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>892</v>
+        <v>1732</v>
       </c>
       <c r="L2">
-        <v>950</v>
+        <v>552</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1353</v>
+        <v>2115</v>
       </c>
       <c r="L3">
         <v>552</v>
@@ -623,16 +623,22 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>736</v>
+        <v>800</v>
       </c>
       <c r="H7">
-        <v>1845</v>
+        <v>1968</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>673</v>
+        <v>695</v>
+      </c>
+      <c r="L7">
+        <v>314</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
       </c>
       <c r="N7">
         <v>176</v>
@@ -652,22 +658,56 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>768</v>
+        <v>800</v>
       </c>
       <c r="H8">
-        <v>1968</v>
+        <v>2091</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>702</v>
+        <v>812</v>
       </c>
       <c r="L8">
-        <v>314</v>
+        <v>320</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
       </c>
       <c r="N8">
         <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>128</v>
+      </c>
+      <c r="H9">
+        <v>492</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/result/RPM_upgrade_result.xlsx
+++ b/result/RPM_upgrade_result.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="random_pattern" sheetId="1" r:id="rId1"/>
+    <sheet name="nearest neighbor" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>algorithm</t>
   </si>
@@ -113,7 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -129,7 +130,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -171,7 +172,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,7 +207,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,6 +702,15 @@
       <c r="I9">
         <v>0</v>
       </c>
+      <c r="K9">
+        <v>294</v>
+      </c>
+      <c r="L9">
+        <v>97</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
       <c r="N9">
         <v>148</v>
       </c>
@@ -708,6 +718,136 @@
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>128</v>
+      </c>
+      <c r="H10">
+        <v>369</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>295</v>
+      </c>
+      <c r="L10">
+        <v>161</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>736</v>
+      </c>
+      <c r="C2">
+        <v>1599</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>328</v>
+      </c>
+      <c r="G2">
+        <v>185</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>480</v>
+      </c>
+      <c r="C3">
+        <v>861</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2115</v>
+      </c>
+      <c r="G3">
+        <v>552</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
